--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D825D5B0-5AF5-4794-A1C9-046418823D6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="555" windowWidth="38925" windowHeight="21555"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="9" r:id="rId2"/>
-    <sheet name="2016_Data" sheetId="10" r:id="rId3"/>
+    <sheet name="Calcs" sheetId="9" r:id="rId2"/>
+    <sheet name="CEA-Data" sheetId="10" r:id="rId3"/>
     <sheet name="SYC-SYEGC" sheetId="4" r:id="rId4"/>
     <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>SYC Start Year Electricity Generation Capacity</t>
   </si>
@@ -114,9 +121,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Peakers that Provide Flexibility Points</t>
-  </si>
-  <si>
     <t>Fraction</t>
   </si>
   <si>
@@ -135,109 +139,107 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>Capacity as on 31.12.2016 (MW)</t>
-  </si>
-  <si>
-    <t>https://mnre.gov.in/file-manager/annual-report/2016-2017/EN/pdf/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pv-magazine-usa.com/2017/01/19/pvma-figures-show-75-gw-of-solar-pv-was-installed-in-2016/</t>
-  </si>
-  <si>
-    <t>Solar PV Capacity</t>
-  </si>
-  <si>
-    <t>The production of energy in peta joules by commercial sources shows that Coal
-was the major source of energy, accounting for about 70.87% of the total
-production during 2016-17. Crude Petroleum was the second (10.66%), while
-Natural Gas (8.68%) was the third major source. Electricity and lignite contributed
-6.15% and 3.63% respectively.</t>
-  </si>
-  <si>
-    <t>http://mospi.nic.in/sites/default/files/publication_reports/Energy_Statistics_2018.pdf</t>
-  </si>
-  <si>
-    <t>http://www.cea.nic.in/reports/monthly/executivesummary/2016/exe_summary-12.pdf</t>
-  </si>
-  <si>
     <t>Lignite</t>
   </si>
   <si>
-    <t>http://www.cea.nic.in/reports/monthly/broadstatus/2016/broad_status-12.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lignite is available at limited locations such as Neyveli in Tamil Nadu, Surat, Akrimota in
-Gujarat and Barsingsar, Palana, Bithnok in Rajasthan. Since, lignite is available at a
-relatively shallow depth and is non-transferable, its use for power generation at pithead
-stations is found to be attractive. </t>
-  </si>
-  <si>
-    <t>http://www.cea.nic.in/reports/committee/nep/nep_dec.pdf</t>
-  </si>
-  <si>
-    <t>Now, of
-the 23075.57 MW of gas based capacity available at present, 350 MW is open cycle only
-and the balance are closed cycle</t>
-  </si>
-  <si>
     <t>Peaking gas</t>
   </si>
   <si>
-    <t>Now, out
-of the total hydro capacity of 42784 MW as on 31.03.2016, 25404 MW are storage type,
-11795 MW are run-of the river type and the balance is of pondage type</t>
-  </si>
-  <si>
-    <t>Hydro based storage</t>
-  </si>
-  <si>
-    <t>RE capacity as on 31.12.2016</t>
-  </si>
-  <si>
-    <t>Mentioned in the same report but is only till 30 September</t>
-  </si>
-  <si>
-    <t>Capacities by Plant Type (does no provide break-up for coal-lignite, solar PV- Thermal, Peaking/Non-peaking Gas</t>
-  </si>
-  <si>
-    <t>PV Magazine</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t>Lignite capacity</t>
-  </si>
-  <si>
-    <t>Central Electricity Authority</t>
-  </si>
-  <si>
-    <t>Peaking gas and storage type hydro</t>
-  </si>
-  <si>
-    <t>Open cycle Natural gas plants are considered as peaking plants for 2016</t>
-  </si>
-  <si>
-    <t>No geothermal or offshore wind plants were operational or installed in 2016</t>
-  </si>
-  <si>
-    <t>December2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only storage based hydro power plantsand natural gas plants are included as peaking plants  </t>
-  </si>
-  <si>
-    <t>It is assumed that all peaking plants can provide flexibility</t>
+    <t>http://www.cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+  </si>
+  <si>
+    <t>Capacity as on 31.12.2018 (MW)</t>
+  </si>
+  <si>
+    <t>pp 6.19</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
+  </si>
+  <si>
+    <t>pp 8.5</t>
+  </si>
+  <si>
+    <t>pp 10.2</t>
+  </si>
+  <si>
+    <t>of the 23075.57 MW of gas based capacity available in 2017, 350 MW is open cycle 
+which is suited for peaking. From 2017-22, 406 MW new gas plants are expected to be installed by NEP.
+These are all combined cycle, or engine-type - which are considered suitable for peaking by NEP 
+(see NEP report excerpts in CEA-Data sheet). We assume that this new capacity is included as per plan in the 2018 
+installed capacity figures, as the current sources for 2018 don't disaggregate the gas power plants by type.
+Dividing the 406 value by 5 and adding it to 2018 could lead to potential double counting, which is a risk considering
+that gas plants are already operating at low PLFs due to shortage of fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacities by Plant Type </t>
+  </si>
+  <si>
+    <t>December 2018 (Monthly Installed Cap report)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peaking gas </t>
+  </si>
+  <si>
+    <t>Central Electricity Authority - National Electricity Plan Volume 1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Table 10.3, 10.4, Section 6.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As official data has no detailed breakdown of liquid fuel plants, </t>
+  </si>
+  <si>
+    <t>Crude Oil and Residual Fuel Oil types are assumed to be accounted for in Diesel subscript.</t>
+  </si>
+  <si>
+    <t>Only natural gas open cycle plants are included as peaking plants .</t>
+  </si>
+  <si>
+    <t>No geothermal, solar thermal, offshore wind or MSW plants were operational/installed in 2018.</t>
+  </si>
+  <si>
+    <t>Waste to energy is accounted under biomass.</t>
+  </si>
+  <si>
+    <t>Hydro includes large, small, and pumped storage.</t>
+  </si>
+  <si>
+    <t>As of March 2019, there is 4786 MW of pumped hydro storage capacity out of which 3305 is working.</t>
+  </si>
+  <si>
+    <t>This is included in large hydro, as the peaker plants are classified only as natural gas in EPS.</t>
+  </si>
+  <si>
+    <t>It is assumed that all peaking plants provide flexibility points.</t>
+  </si>
+  <si>
+    <t>Start Year Capacities (MW)</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Peakers that Provide Flexibility Points (dimensionless)</t>
+  </si>
+  <si>
+    <t>Diesel is accounted in petroleum subscript of EPS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +277,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -291,7 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -324,18 +339,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -346,7 +363,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,39 +383,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171758</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177892</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Shot 2018-04-12 at 11.13.42 pm.png"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4961D332-2CAA-425A-973E-821085AF0C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="0"/>
-          <a:ext cx="10744200" cy="9061758"/>
+          <a:off x="761999" y="0"/>
+          <a:ext cx="10083893" cy="8518070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -409,40 +426,128 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42711</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>356347</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Shot 2018-04-12 at 11.34.21 pm.png"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5E7876-9F37-43F3-B523-1E010767E687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11163300" y="63500"/>
-          <a:ext cx="6362700" cy="4602011"/>
+          <a:off x="10804072" y="5810250"/>
+          <a:ext cx="8602275" cy="3724795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>153591</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE33729-74F6-4FF5-9D3B-873AF1C333D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="10477500"/>
+          <a:ext cx="8535591" cy="2143424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90F85A0-A1C5-4FD9-A5BD-8C952C42E8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11280322" y="0"/>
+          <a:ext cx="6272891" cy="4425137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,11 +821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,13 +858,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>34</v>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,105 +872,101 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="23" spans="1:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://pv-magazine-usa.com/2017/01/19/pvma-figures-show-75-gw-of-solar-pv-was-installed-in-2016/"/>
-    <hyperlink ref="B22" r:id="rId4"/>
-    <hyperlink ref="B17" r:id="rId5"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -875,243 +976,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>188967.88</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="11">
+        <v>191092.5</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>25282.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>24937.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>918.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="11">
+        <v>637.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="11">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>43139.43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="11">
+        <v>45399.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4517.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12">
-        <v>4323.37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>4333.8500000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="11">
+        <v>35138.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12">
-        <v>28082.95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>28700.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="11">
+        <v>9075.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
-        <v>4882.33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>7907.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="11">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12">
-        <v>115.08</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>114.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12">
-        <v>8513.23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>9012.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="11">
+        <v>25212.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C11)</f>
-        <v>310005.29000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <f>2500</f>
-        <v>2500</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32">
+        <v>342928.23000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11">
+        <v>6360</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>25404</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="D24" r:id="rId4"/>
-    <hyperlink ref="B30" r:id="rId5"/>
-    <hyperlink ref="B35" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1121,33 +1121,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B28:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B21:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>41</v>
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="26" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B53" r:id="rId1"/>
-    <hyperlink ref="O28" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1157,31 +1181,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1189,14 +1216,14 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
-        <f>Data!C2-Data!C24</f>
-        <v>186467.88</v>
+      <c r="B2" s="6">
+        <f>Calcs!C2</f>
+        <v>191092.5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1204,14 +1231,14 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <f>Data!C3-Data!C32</f>
-        <v>24932.13</v>
+      <c r="B3" s="6">
+        <f>Calcs!C3-Calcs!C17</f>
+        <v>24587.22</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1219,14 +1246,14 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
-        <f>Data!C5</f>
-        <v>5780</v>
+      <c r="B4" s="6">
+        <f>Calcs!C5</f>
+        <v>6780</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1234,14 +1261,14 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <f>Data!C6+Data!C7</f>
-        <v>47462.8</v>
+      <c r="B5" s="6">
+        <f>Calcs!C6+Calcs!C7</f>
+        <v>49916.67</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1249,14 +1276,14 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <f>Data!F8</f>
-        <v>28700.44</v>
+      <c r="B6" s="6">
+        <f>Calcs!C8</f>
+        <v>35138.15</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1264,14 +1291,14 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
-        <f>Data!D18</f>
-        <v>5000</v>
+      <c r="B7" s="6">
+        <f>Calcs!C11</f>
+        <v>25212.26</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1279,14 +1306,13 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
-        <f>Data!F11-Data!D18</f>
-        <v>4012.66</v>
+      <c r="B8" s="6">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1294,14 +1320,14 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
-        <f>Data!C9+Data!F9</f>
-        <v>12789.67</v>
+      <c r="B9" s="6">
+        <f>Calcs!C9</f>
+        <v>9075.5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1309,14 +1335,14 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1324,14 +1350,14 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7">
-        <f>918.89</f>
-        <v>918.89</v>
+      <c r="B11" s="6">
+        <f>Calcs!C4</f>
+        <v>637.63</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1339,14 +1365,14 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
-        <f>Data!C32</f>
+      <c r="B12" s="6">
+        <f>Calcs!C17</f>
         <v>350</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1354,14 +1380,14 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
-        <f>Data!C24</f>
-        <v>2500</v>
+      <c r="B13" s="6">
+        <f>Calcs!C15</f>
+        <v>6360</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1369,14 +1395,57 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6">
+        <f>Calcs!C10</f>
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1391,14 +1460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,59 +1479,59 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="6"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\vensim test\Updated power sector data - 20200624\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D825D5B0-5AF5-4794-A1C9-046418823D6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C640D9-CDEE-4879-B057-B366B6C5788E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>SYC Start Year Electricity Generation Capacity</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Central Electricity authority</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Peaking gas</t>
   </si>
   <si>
-    <t>http://www.cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
-  </si>
-  <si>
     <t>Capacity as on 31.12.2018 (MW)</t>
   </si>
   <si>
@@ -160,36 +154,9 @@
     <t>pp 8.5</t>
   </si>
   <si>
-    <t>pp 10.2</t>
-  </si>
-  <si>
-    <t>of the 23075.57 MW of gas based capacity available in 2017, 350 MW is open cycle 
-which is suited for peaking. From 2017-22, 406 MW new gas plants are expected to be installed by NEP.
-These are all combined cycle, or engine-type - which are considered suitable for peaking by NEP 
-(see NEP report excerpts in CEA-Data sheet). We assume that this new capacity is included as per plan in the 2018 
-installed capacity figures, as the current sources for 2018 don't disaggregate the gas power plants by type.
-Dividing the 406 value by 5 and adding it to 2018 could lead to potential double counting, which is a risk considering
-that gas plants are already operating at low PLFs due to shortage of fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacities by Plant Type </t>
-  </si>
-  <si>
-    <t>December 2018 (Monthly Installed Cap report)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peaking gas </t>
-  </si>
-  <si>
-    <t>Central Electricity Authority - National Electricity Plan Volume 1</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>Table 10.3, 10.4, Section 6.10.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">As official data has no detailed breakdown of liquid fuel plants, </t>
   </si>
   <si>
@@ -199,21 +166,9 @@
     <t>Only natural gas open cycle plants are included as peaking plants .</t>
   </si>
   <si>
-    <t>No geothermal, solar thermal, offshore wind or MSW plants were operational/installed in 2018.</t>
-  </si>
-  <si>
-    <t>Waste to energy is accounted under biomass.</t>
-  </si>
-  <si>
     <t>Hydro includes large, small, and pumped storage.</t>
   </si>
   <si>
-    <t>As of March 2019, there is 4786 MW of pumped hydro storage capacity out of which 3305 is working.</t>
-  </si>
-  <si>
-    <t>This is included in large hydro, as the peaker plants are classified only as natural gas in EPS.</t>
-  </si>
-  <si>
     <t>It is assumed that all peaking plants provide flexibility points.</t>
   </si>
   <si>
@@ -233,13 +188,71 @@
   </si>
   <si>
     <t>Diesel is accounted in petroleum subscript of EPS.</t>
+  </si>
+  <si>
+    <t>Pp 8.5</t>
+  </si>
+  <si>
+    <t>However, pumped hydro storage plants are not considered for peaking, as the peaker plants are classified only as natural gas in EPS.</t>
+  </si>
+  <si>
+    <t>Large Hydro Capacity by type</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority</t>
+  </si>
+  <si>
+    <t>Monthly Hydro Reports (archives)</t>
+  </si>
+  <si>
+    <t>Monthly Installed Capacity Reports (archives)</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority - National Electricity Plan (NEP) Volume 1</t>
+  </si>
+  <si>
+    <t>Peaking gas capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed Capacities by Plant Type </t>
+  </si>
+  <si>
+    <t>Dec 2017</t>
+  </si>
+  <si>
+    <t>Installed Capacity, 2017, Source-wise</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/installedcapacity/2017/installed_capacity-12.pdf</t>
+  </si>
+  <si>
+    <t>Installed Large Hydro Capacity, 2017, by type</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/hydro/2017/hydro_stations-12.pdf</t>
+  </si>
+  <si>
+    <t>As of Dec 2017, there is 4786 MW of pumped hydro storage capacity which is included in CEA's reporting of Large Hydro Capacity.</t>
+  </si>
+  <si>
+    <t>Waste to energy is accounted under Municipal Solid Waste.</t>
+  </si>
+  <si>
+    <t>No lignite plants were operational in 2017.</t>
+  </si>
+  <si>
+    <t>No geothermal, solar thermal, offshore wind capacity existed in 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per CEA's NEP, of the monitored natural gas based capacity in March 2017, 350 MW is open cycle 
+which is suited for peaking. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,13 +296,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -331,7 +337,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -349,10 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -382,23 +384,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5103</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>177892</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>225378</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4961D332-2CAA-425A-973E-821085AF0C57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5E7876-9F37-43F3-B523-1E010767E687}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -414,51 +416,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="761999" y="0"/>
-          <a:ext cx="10083893" cy="8518070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>356347</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>10045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5E7876-9F37-43F3-B523-1E010767E687}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10804072" y="5810250"/>
+          <a:off x="11435103" y="166688"/>
           <a:ext cx="8602275" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -470,15 +428,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>153591</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>189310</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -495,14 +453,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="10477500"/>
+          <a:off x="11465719" y="4572000"/>
           <a:ext cx="8535591" cy="2143424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -514,23 +472,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43637</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348914</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90F85A0-A1C5-4FD9-A5BD-8C952C42E8B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA6094A-B9E8-44C5-AB50-C1CB4A4F3921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="0"/>
+          <a:ext cx="9492915" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>420435</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42637201-6E01-4BAF-B893-64AB0E35726D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,8 +548,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11280322" y="0"/>
-          <a:ext cx="6272891" cy="4425137"/>
+          <a:off x="762000" y="7048500"/>
+          <a:ext cx="9564435" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>188004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A98D3A-04E0-4763-B224-C9D41EF749EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="9235329"/>
+          <a:ext cx="6810374" cy="4478175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,15 +868,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="100.28515625" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -849,124 +896,148 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:D23"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{A7FD3E81-E6F0-4C52-ACE1-F41AA516BB92}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{99545776-ED11-4F9A-9C9F-F032AC795A24}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{153D1619-2DEF-4C19-B7AF-A3ED3991C636}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -980,7 +1051,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,15 +1062,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="11">
-        <v>191092.5</v>
+        <v>192971.5</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1010,23 +1081,23 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11">
-        <v>24937.22</v>
+        <v>25150.38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11">
-        <v>637.63</v>
+        <v>837.63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>6780</v>
@@ -1034,59 +1105,59 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
-        <v>45399.22</v>
+        <v>44963.42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11">
-        <v>4517.45</v>
+        <v>4418.1499999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11">
-        <v>35138.15</v>
+        <v>32848.46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11">
-        <v>9075.5</v>
+        <v>8413.7999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11">
-        <v>138.30000000000001</v>
+        <v>114.08</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11">
-        <v>25212.26</v>
+        <v>17052.41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C11)</f>
-        <v>342928.23000000004</v>
+        <v>333549.83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1094,16 +1165,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11">
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>350</v>
@@ -1122,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B21:P69"/>
+  <dimension ref="B21:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,45 +1204,54 @@
     <row r="21" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
     </row>
-    <row r="26" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O52" t="s">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O69" t="s">
-        <v>38</v>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B48" r:id="rId1" xr:uid="{DF86306B-D430-4107-A4C2-306995175FA7}"/>
+    <hyperlink ref="B74" r:id="rId2" xr:uid="{1A0036FD-787C-49C9-81C1-AC9881804B7B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1188,7 +1268,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,25 +1280,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6">
         <f>Calcs!C2</f>
-        <v>191092.5</v>
+        <v>192971.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1229,11 +1309,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <f>Calcs!C3-Calcs!C17</f>
-        <v>24587.22</v>
+        <v>24800.38</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1244,7 +1324,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6">
         <f>Calcs!C5</f>
@@ -1259,11 +1339,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6">
         <f>Calcs!C6+Calcs!C7</f>
-        <v>49916.67</v>
+        <v>49381.57</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1274,11 +1354,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <f>Calcs!C8</f>
-        <v>35138.15</v>
+        <v>32848.46</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1289,11 +1369,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6">
         <f>Calcs!C11</f>
-        <v>25212.26</v>
+        <v>17052.41</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1304,7 +1384,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -1318,11 +1398,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <f>Calcs!C9</f>
-        <v>9075.5</v>
+        <v>8413.7999999999993</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1333,7 +1413,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <f>0</f>
@@ -1348,11 +1428,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6">
         <f>Calcs!C4</f>
-        <v>637.63</v>
+        <v>837.63</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1363,7 +1443,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6">
         <f>Calcs!C17</f>
@@ -1378,11 +1458,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6">
         <f>Calcs!C15</f>
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1393,7 +1473,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6">
         <f>0</f>
@@ -1408,7 +1488,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1422,7 +1502,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1436,11 +1516,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6">
         <f>Calcs!C10</f>
-        <v>138.30000000000001</v>
+        <v>114.08</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1479,14 +1559,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>

--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\vensim test\Updated power sector data - 20200624\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C640D9-CDEE-4879-B057-B366B6C5788E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calcs" sheetId="9" r:id="rId2"/>
     <sheet name="CEA-Data" sheetId="10" r:id="rId3"/>
-    <sheet name="SYC-SYEGC" sheetId="4" r:id="rId4"/>
-    <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId5"/>
+    <sheet name="Pumped storage" sheetId="11" r:id="rId4"/>
+    <sheet name="SYC-SYEGC" sheetId="4" r:id="rId5"/>
+    <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>SYC Start Year Electricity Generation Capacity</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Crude Oil and Residual Fuel Oil types are assumed to be accounted for in Diesel subscript.</t>
   </si>
   <si>
-    <t>Only natural gas open cycle plants are included as peaking plants .</t>
-  </si>
-  <si>
     <t>Hydro includes large, small, and pumped storage.</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Pp 8.5</t>
   </si>
   <si>
-    <t>However, pumped hydro storage plants are not considered for peaking, as the peaker plants are classified only as natural gas in EPS.</t>
-  </si>
-  <si>
     <t>Large Hydro Capacity by type</t>
   </si>
   <si>
@@ -232,27 +226,139 @@
     <t>http://www.cea.nic.in/reports/monthly/hydro/2017/hydro_stations-12.pdf</t>
   </si>
   <si>
-    <t>As of Dec 2017, there is 4786 MW of pumped hydro storage capacity which is included in CEA's reporting of Large Hydro Capacity.</t>
-  </si>
-  <si>
     <t>Waste to energy is accounted under Municipal Solid Waste.</t>
   </si>
   <si>
     <t>No lignite plants were operational in 2017.</t>
-  </si>
-  <si>
-    <t>No geothermal, solar thermal, offshore wind capacity existed in 2017.</t>
   </si>
   <si>
     <t xml:space="preserve">As per CEA's NEP, of the monitored natural gas based capacity in March 2017, 350 MW is open cycle 
 which is suited for peaking. </t>
+  </si>
+  <si>
+    <t>No solar thermal or offshore wind capacity existed in 2017.</t>
+  </si>
+  <si>
+    <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
+  </si>
+  <si>
+    <t>PUMPED STORAGE DEVELOPMENT IN INDIA</t>
+  </si>
+  <si>
+    <t>(Installed Capacity above 25 MW)</t>
+  </si>
+  <si>
+    <t>As on 30.09.2019</t>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>SCHEMES</t>
+  </si>
+  <si>
+    <t>no. of units 
+X unit size (MW)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>A. Schemes Constructed</t>
+  </si>
+  <si>
+    <t>a) Working in pumping mode</t>
+  </si>
+  <si>
+    <t>Nagarjuna Sagar -Telangana</t>
+  </si>
+  <si>
+    <t>7x100.80</t>
+  </si>
+  <si>
+    <t>Kadamparai -T.N</t>
+  </si>
+  <si>
+    <t>4x100</t>
+  </si>
+  <si>
+    <t>Bhira -Mah.</t>
+  </si>
+  <si>
+    <t>1x150</t>
+  </si>
+  <si>
+    <t>Srisailam LBPH -Telangana</t>
+  </si>
+  <si>
+    <t>6x150</t>
+  </si>
+  <si>
+    <t>Purlia PSS -W.B.</t>
+  </si>
+  <si>
+    <t>4x225</t>
+  </si>
+  <si>
+    <t>Ghatgar -Mah.</t>
+  </si>
+  <si>
+    <t>2x125</t>
+  </si>
+  <si>
+    <t>Working tot.</t>
+  </si>
+  <si>
+    <t>A. Schemes under construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehri St.-II -Uttarakhand </t>
+  </si>
+  <si>
+    <t>4x250</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2021-23 (June’22)</t>
+  </si>
+  <si>
+    <t>Koyna Left Bank -Mah.</t>
+  </si>
+  <si>
+    <t>2x40</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2022-23</t>
+  </si>
+  <si>
+    <t>Kundah Pump Storage (Stage I,II,II&amp;IV)-T. N</t>
+  </si>
+  <si>
+    <t>4x 125</t>
+  </si>
+  <si>
+    <t>Pumped hydro</t>
+  </si>
+  <si>
+    <t>Pumped Storage Development in India</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/hydro/2019/pump_storage-09.pdf</t>
+  </si>
+  <si>
+    <t>Natural gas open cycle plants and pumped hydro are included as peaking plants .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +402,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -317,12 +455,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -337,7 +490,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -355,6 +508,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -365,7 +540,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,177 +1042,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="100.28515625" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="100.265625" customWidth="1"/>
+    <col min="4" max="4" width="68.59765625" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>56</v>
+      <c r="D11" t="s">
+        <v>51</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="23">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{A7FD3E81-E6F0-4C52-ACE1-F41AA516BB92}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{99545776-ED11-4F9A-9C9F-F032AC795A24}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{153D1619-2DEF-4C19-B7AF-A3ED3991C636}"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1047,25 +1233,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1265,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1273,7 @@
         <v>25150.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1281,7 @@
         <v>837.63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1289,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1297,7 @@
         <v>44963.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1305,7 @@
         <v>4418.1499999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1127,7 +1313,7 @@
         <v>32848.46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1321,7 @@
         <v>8413.7999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1329,7 @@
         <v>114.08</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1337,7 @@
         <v>17052.41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1160,10 +1346,10 @@
         <v>333549.83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1358,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1192,62 +1378,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:P74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
       <c r="P37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="P38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1" xr:uid="{DF86306B-D430-4107-A4C2-306995175FA7}"/>
-    <hyperlink ref="B74" r:id="rId2" xr:uid="{1A0036FD-787C-49C9-81C1-AC9881804B7B}"/>
+    <hyperlink ref="B48" r:id="rId1"/>
+    <hyperlink ref="B74" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1261,26 +1447,272 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="21">
+        <v>705.6</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16">
+        <v>400</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="16">
+        <v>150</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="16">
+        <v>900</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="16">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="16">
+        <v>900</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="16">
+        <v>250</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(D8:D13)</f>
+        <v>3305.6</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="16">
+        <v>80</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="16">
+        <v>500</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1292,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1411,13 +1843,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6">
-        <f>0</f>
-        <v>0</v>
+        <f>'Pumped storage'!D14</f>
+        <v>3305.6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1426,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1456,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1471,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1486,37 +1918,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>46</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
       </c>
       <c r="B17" s="6">
         <f>Calcs!C10</f>
@@ -1539,77 +1971,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="D12" s="5"/>
     </row>

--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E39A4-BDCD-4598-8F5B-F2C9829F0CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="SYC-SYEGC" sheetId="4" r:id="rId5"/>
     <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -357,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +545,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,31 +1047,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.265625" customWidth="1"/>
-    <col min="4" max="4" width="68.59765625" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1101,7 +1106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
@@ -1109,10 +1114,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1121,7 +1126,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1130,7 +1135,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1154,73 +1159,73 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -1233,25 +1238,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1270,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1278,7 @@
         <v>25150.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>837.63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>44963.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>4418.1499999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>32848.46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>8413.7999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>114.08</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>17052.41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1346,10 +1351,10 @@
         <v>333549.83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1378,62 +1383,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B21:P74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1"/>
-    <hyperlink ref="B74" r:id="rId2"/>
+    <hyperlink ref="B48" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B74" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1447,31 +1452,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="24" t="s">
@@ -1480,7 +1485,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>71</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>76</v>
       </c>
@@ -1506,7 +1511,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>77</v>
       </c>
@@ -1515,7 +1520,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -1530,7 +1535,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -1545,7 +1550,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -1560,7 +1565,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -1575,7 +1580,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>5</v>
       </c>
@@ -1590,7 +1595,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>6</v>
       </c>
@@ -1605,7 +1610,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
@@ -1617,14 +1622,14 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>91</v>
       </c>
@@ -1633,7 +1638,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>1</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -1667,7 +1672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>3</v>
       </c>
@@ -1693,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -1703,14 +1708,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1972,76 +1977,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="D12" s="5"/>
     </row>
